--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4271</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Moeen Munir Ali</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1856,7 +1921,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1908,7 +1973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1960,7 +2025,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2065,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2476,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -2420,7 +2483,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2472,7 +2535,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2512,7 +2575,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -2520,7 +2582,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2572,7 +2634,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2612,7 +2674,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2889,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2880,7 +2941,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2932,7 +2993,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2984,7 +3045,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3036,7 +3097,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3088,7 +3149,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3140,7 +3201,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3253,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3284,7 +3345,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3384,7 +3444,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>10/06/2017</t>
@@ -3392,7 +3451,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3444,7 +3503,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3484,7 +3543,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -3492,7 +3550,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3532,7 +3590,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3540,7 +3597,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3592,7 +3649,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3644,7 +3701,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3684,7 +3741,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -3692,7 +3748,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3744,7 +3800,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3796,7 +3852,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3848,7 +3904,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3900,7 +3956,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3952,7 +4008,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4004,7 +4060,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4044,7 +4100,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -4052,7 +4107,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4104,7 +4159,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4156,7 +4211,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4196,7 +4251,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -4204,7 +4258,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4256,7 +4310,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4308,7 +4362,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4360,7 +4414,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4412,7 +4466,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4452,7 +4506,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -4460,7 +4513,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4512,7 +4565,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4564,7 +4617,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4616,7 +4669,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4656,7 +4709,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -4664,7 +4716,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4704,7 +4756,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4712,7 +4763,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4764,7 +4815,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4804,7 +4855,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -4812,7 +4862,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4852,7 +4902,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -4860,7 +4909,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4912,7 +4961,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4952,7 +5001,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4960,7 +5008,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5012,7 +5060,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5052,7 +5100,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -5060,7 +5107,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5112,7 +5159,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5164,7 +5211,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5204,7 +5251,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -5212,7 +5258,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5264,7 +5310,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5316,7 +5362,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5368,7 +5414,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5420,7 +5466,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5472,7 +5518,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5524,7 +5570,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5576,7 +5622,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5628,7 +5674,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5680,7 +5726,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5720,7 +5766,6 @@
           <t>103</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -5728,7 +5773,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5780,7 +5825,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5832,7 +5877,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5884,7 +5929,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5936,7 +5981,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5976,7 +6021,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -5984,7 +6028,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6036,7 +6080,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6088,7 +6132,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6128,7 +6172,6 @@
           <t>111</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -6136,7 +6179,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6176,7 +6219,6 @@
           <t>112</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -6184,7 +6226,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6224,7 +6266,6 @@
           <t>113</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -6232,7 +6273,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6284,7 +6325,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6324,7 +6365,6 @@
           <t>115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -6332,7 +6372,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6384,7 +6424,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6436,7 +6476,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6488,7 +6528,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6540,7 +6580,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6592,7 +6632,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6632,7 +6672,6 @@
           <t>121</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -6640,7 +6679,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6692,7 +6731,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6744,7 +6783,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6796,7 +6835,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6848,7 +6887,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6900,7 +6939,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6952,7 +6991,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7004,7 +7043,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7056,7 +7095,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7095,7 +7134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7117,7 +7156,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -7154,7 +7193,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7191,7 +7230,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7228,7 +7267,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7265,7 +7304,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7302,7 +7341,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7339,7 +7378,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7376,7 +7415,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7413,7 +7452,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7450,7 +7489,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7487,7 +7526,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7524,7 +7563,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7561,7 +7600,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7598,7 +7637,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7635,7 +7674,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7672,7 +7711,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7709,7 +7748,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7746,7 +7785,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7783,7 +7822,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7820,7 +7859,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7857,7 +7896,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7894,7 +7933,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7931,7 +7970,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7968,7 +8007,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8005,7 +8044,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -8042,7 +8081,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8079,7 +8118,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8116,7 +8155,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8153,7 +8192,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8190,7 +8229,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8227,7 +8266,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8264,7 +8303,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8301,7 +8340,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8338,7 +8377,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8375,7 +8414,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8412,7 +8451,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8449,7 +8488,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8486,7 +8525,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8523,7 +8562,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8560,7 +8599,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8597,7 +8636,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8634,7 +8673,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8671,7 +8710,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8708,7 +8747,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8745,7 +8784,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8782,7 +8821,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8819,7 +8858,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8856,7 +8895,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8893,7 +8932,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8930,7 +8969,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8967,7 +9006,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9004,7 +9043,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9041,7 +9080,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9078,7 +9117,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9115,7 +9154,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9152,7 +9191,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -9189,7 +9228,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -9226,7 +9265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9263,7 +9302,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -9300,7 +9339,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -9337,7 +9376,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9374,7 +9413,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9411,7 +9450,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9448,7 +9487,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9485,7 +9524,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9522,7 +9561,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9559,7 +9598,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9596,7 +9635,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9633,7 +9672,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9670,7 +9709,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9707,7 +9746,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9744,7 +9783,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9781,7 +9820,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9818,7 +9857,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9855,7 +9894,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9892,7 +9931,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9929,7 +9968,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9966,7 +10005,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -10003,7 +10042,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -10040,7 +10079,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -10077,7 +10116,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -10114,7 +10153,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10151,7 +10190,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -10188,7 +10227,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10225,7 +10264,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10262,7 +10301,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10299,7 +10338,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10336,7 +10375,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10373,7 +10412,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10410,7 +10449,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10447,7 +10486,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10484,7 +10523,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10521,7 +10560,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10558,7 +10597,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10595,7 +10634,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10632,7 +10671,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10669,7 +10708,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10706,7 +10745,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10743,7 +10782,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10780,7 +10819,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10817,7 +10856,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10854,7 +10893,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10891,7 +10930,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10928,7 +10967,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10965,7 +11004,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11002,7 +11041,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11039,7 +11078,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11076,7 +11115,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11113,7 +11152,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -11150,7 +11189,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -11187,7 +11226,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11224,7 +11263,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -11261,7 +11300,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -11298,7 +11337,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -11335,7 +11374,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -11372,7 +11411,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -11409,7 +11448,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -11446,7 +11485,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -11483,7 +11522,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -11520,7 +11559,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -11546,6 +11585,535 @@
       <c r="G120" t="inlineStr">
         <is>
           <t>0/48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14.81%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.73%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.11%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.13%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.06%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11.85%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.60%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12.88%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11678,9 +11679,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11693,249 +11691,608 @@
           <t>4471</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.73%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.11%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.13%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.06%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11.85%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.60%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12.88%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12.73%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>19.11%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13.13%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11943,27 +12300,14 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>6</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.06%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11973,29 +12317,12 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14.91%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12003,29 +12330,12 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>11.85%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12033,27 +12343,14 @@
           <t>4711</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.60%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -12063,27 +12360,14 @@
           <t>4713</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>7</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>12.88%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -12093,29 +12377,12 @@
           <t>4717</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.02%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5113,7 +5112,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6232,7 +6231,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6685,7 +6684,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11679,6 +11678,9 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11691,6 +11693,10 @@
           <t>4471</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11703,6 +11709,10 @@
           <t>4598</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11715,6 +11725,10 @@
           <t>4599</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11730,6 +11744,9 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11832,6 +11849,10 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11874,6 +11895,10 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11886,6 +11911,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11898,6 +11927,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12083,306 +12116,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4271.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,6 +2064,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -2476,6 +2476,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -2575,6 +2576,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -2674,6 +2676,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -3345,6 +3348,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -3444,6 +3448,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>10/06/2017</t>
@@ -3543,6 +3548,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -3590,6 +3596,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3741,6 +3748,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -4100,6 +4108,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -4251,6 +4260,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -4506,6 +4516,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -4709,6 +4720,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -4756,6 +4768,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4855,6 +4868,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -4902,6 +4916,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -5001,6 +5016,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -5100,6 +5116,7 @@
           <t>90</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -5251,6 +5268,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -5766,6 +5784,7 @@
           <t>103</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -6021,6 +6040,7 @@
           <t>108</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -6172,6 +6192,7 @@
           <t>111</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -6219,6 +6240,7 @@
           <t>112</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -6266,6 +6288,7 @@
           <t>113</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -6365,6 +6388,7 @@
           <t>115</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -6672,6 +6696,7 @@
           <t>121</t>
         </is>
       </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -11591,533 +11616,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>14.81%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12.73%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>19.11%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13.13%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.06%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14.91%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>11.85%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.60%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>12.88%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.02%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>